--- a/FIO_Field_Descriptions.xlsx
+++ b/FIO_Field_Descriptions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisacarolynlu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisacarolynlu/iop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="460" windowWidth="24660" windowHeight="12700"/>
+    <workbookView xWindow="4140" yWindow="460" windowWidth="24660" windowHeight="12700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
     <t>Yellow = remove</t>
   </si>
   <si>
-    <t>Red = remove for now</t>
+    <t>Red = ignore for now</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,9 +346,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,8 +656,8 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,7 +685,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -822,7 +829,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -894,7 +901,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -902,7 +909,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -918,7 +925,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">

--- a/FIO_Field_Descriptions.xlsx
+++ b/FIO_Field_Descriptions.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>FIO Column Descriptions</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Red = ignore for now</t>
+  </si>
+  <si>
+    <t>0 = male, 1 = female, -1 = unknown</t>
   </si>
 </sst>
 </file>
@@ -656,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -698,6 +701,9 @@
       </c>
       <c r="B5" t="s">
         <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/FIO_Field_Descriptions.xlsx
+++ b/FIO_Field_Descriptions.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>FIO Column Descriptions</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>0 = male, 1 = female, -1 = unknown</t>
+  </si>
+  <si>
+    <t>0 = vehicle, 1 = passenger, -1 = NaN</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -794,7 +797,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -802,7 +805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -810,7 +813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -818,7 +821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -826,7 +829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -834,7 +837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -842,7 +845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -850,7 +853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -858,7 +861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -866,7 +869,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -874,7 +877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -882,7 +885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -890,7 +893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -898,15 +901,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -914,7 +920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>

--- a/FIO_Field_Descriptions.xlsx
+++ b/FIO_Field_Descriptions.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>FIO Column Descriptions</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>0 = vehicle, 1 = passenger, -1 = NaN</t>
+  </si>
+  <si>
+    <t>0 = no, 1  = yes, -1 = unknown/NaN</t>
   </si>
 </sst>
 </file>
@@ -662,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -718,7 +721,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -772,6 +775,9 @@
       <c r="B13" t="s">
         <v>75</v>
       </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -985,7 +991,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
